--- a/public/StructureDefinition-AccountExtension.xlsx
+++ b/public/StructureDefinition-AccountExtension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T09:06:11-05:00</t>
+    <t>2022-04-07T10:16:51-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
